--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -465,27 +465,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>expected_error</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>expected_title</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>expected_error</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>expected_title</t>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Execution_Time</t>
         </is>
       </c>
     </row>
@@ -495,7 +500,11 @@
           <t>TC_01</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n"/>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
           <t>tomsmith</t>
@@ -509,7 +518,7 @@
       <c r="E2" s="2" t="n"/>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>The Internet</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -529,7 +538,11 @@
           <t>TC_02</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
           <t>invalid</t>
@@ -547,7 +560,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>The Internet</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -557,7 +570,11 @@
           <t>TC_03</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="inlineStr">
         <is>
@@ -571,7 +588,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>The Internet</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -581,7 +598,11 @@
           <t>TC_04</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
           <t>tomsmith</t>
@@ -595,7 +616,7 @@
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>The Internet</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -605,13 +626,17 @@
           <t>TC_05</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="C6" s="2" t="n"/>
       <c r="D6" s="2" t="n"/>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>The Internet</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>

--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -24,28 +25,16 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FF4472C4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -53,32 +42,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -441,49 +413,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="6.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>TestID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>username</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>expected_error</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>expected_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
@@ -495,148 +459,127 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>TC_01</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>tomsmith</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>SuperSecretPassword!</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Secure Area</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2026-01-04 19:36:05</t>
+          <t>2026-01-04 20:39:59</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>TC_02</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>invalid</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>invalid</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>foobar</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>barfoo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Your username is invalid!</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>TC_03</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SecretPassword!</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Your username is invalid!</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>PASS</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Your username is invalid!</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>TC_04</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>tomsmith</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SuperSecretPassword!</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Secure Area</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>PASS</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>tomsmith</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>SuperSecretPassword!</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>TC_05</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>The Internet</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>PASS</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
         </is>
       </c>
     </row>

--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-01-04 20:39:59</t>
+          <t>2026-01-04 20:58:45</t>
         </is>
       </c>
     </row>

--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -415,11 +414,20 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="9.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="21.140625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="23.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="14.140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="6.5703125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -481,12 +489,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-01-04 20:58:45</t>
+          <t>2026-01-04 21:26:19</t>
         </is>
       </c>
     </row>
@@ -513,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
